--- a/Team-Data/2012-13/1-29-2012-13.xlsx
+++ b/Team-Data/2012-13/1-29-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -944,10 +1011,10 @@
         <v>18</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>28</v>
@@ -1001,7 +1068,7 @@
         <v>20</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>1.6</v>
       </c>
       <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
         <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1150,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
         <v>24</v>
@@ -1162,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-8</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
@@ -1332,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>2.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>7</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1514,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
@@ -1523,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>16</v>
@@ -1544,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>0.283</v>
+        <v>0.289</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1600,19 +1667,19 @@
         <v>0.423</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M7" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P7" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q7" t="n">
         <v>0.753</v>
@@ -1621,13 +1688,13 @@
         <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T7" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U7" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V7" t="n">
         <v>14.7</v>
@@ -1636,13 +1703,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA7" t="n">
         <v>20.4</v>
@@ -1651,16 +1718,16 @@
         <v>95.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
@@ -1684,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1699,13 +1766,13 @@
         <v>6</v>
       </c>
       <c r="AS7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT7" t="n">
         <v>21</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -1758,43 +1825,43 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.422</v>
+        <v>0.432</v>
       </c>
       <c r="H8" t="n">
         <v>49.1</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J8" t="n">
         <v>84.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q8" t="n">
         <v>0.798</v>
@@ -1803,13 +1870,13 @@
         <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
         <v>14.5</v>
@@ -1827,25 +1894,25 @@
         <v>21.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC8" t="n">
         <v>-2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF8" t="n">
         <v>19</v>
       </c>
-      <c r="AF8" t="n">
-        <v>20</v>
-      </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
@@ -1863,16 +1930,16 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
         <v>16</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,22 +1948,22 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW8" t="n">
         <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>8</v>
@@ -1905,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.378</v>
+        <v>0.386</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J10" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M10" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P10" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.708</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="S10" t="n">
         <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U10" t="n">
         <v>20.3</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>6.4</v>
@@ -2185,7 +2252,7 @@
         <v>5.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
         <v>19.7</v>
@@ -2194,13 +2261,13 @@
         <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.8</v>
+        <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
@@ -2221,7 +2288,7 @@
         <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2230,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
         <v>18</v>
@@ -2242,7 +2309,7 @@
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
@@ -2254,13 +2321,13 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
         <v>20</v>
@@ -2272,10 +2339,10 @@
         <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.622</v>
+        <v>0.614</v>
       </c>
       <c r="H11" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J11" t="n">
         <v>83</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.394</v>
+        <v>0.388</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P11" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.804</v>
+        <v>0.806</v>
       </c>
       <c r="R11" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
         <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="V11" t="n">
         <v>15.3</v>
@@ -2364,28 +2431,28 @@
         <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z11" t="n">
         <v>21.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
         <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2403,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2415,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>24</v>
@@ -2442,16 +2509,16 @@
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>4</v>
@@ -2615,7 +2682,7 @@
         <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2624,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>11</v>
@@ -2758,7 +2825,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2785,10 +2852,10 @@
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS13" t="n">
         <v>6</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -2976,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.444</v>
+        <v>0.432</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,40 +3117,40 @@
         <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.357</v>
       </c>
       <c r="O15" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P15" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U15" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z15" t="n">
         <v>18.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3161,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3364,7 +3431,7 @@
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J18" t="n">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.353</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
         <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="R18" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S18" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T18" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U18" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W18" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>7.5</v>
@@ -3644,22 +3711,22 @@
         <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3680,25 +3747,25 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>15</v>
@@ -3710,10 +3777,10 @@
         <v>14</v>
       </c>
       <c r="AV18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3728,7 +3795,7 @@
         <v>15</v>
       </c>
       <c r="BB18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
         <v>35.9</v>
       </c>
       <c r="J20" t="n">
-        <v>80.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3972,73 +4039,73 @@
         <v>18.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O20" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="P20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.773</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
         <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y20" t="n">
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.5</v>
+        <v>93.2</v>
       </c>
       <c r="AC20" t="n">
         <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -4050,7 +4117,7 @@
         <v>19</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>27</v>
@@ -4062,10 +4129,10 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>19</v>
@@ -4074,13 +4141,13 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4092,7 +4159,7 @@
         <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>4.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
@@ -4235,10 +4302,10 @@
         <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
@@ -4253,7 +4320,7 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
         <v>9</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-4</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
         <v>27</v>
@@ -4581,7 +4648,7 @@
         <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ23" t="n">
         <v>12</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
@@ -4799,7 +4866,7 @@
         <v>23</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
@@ -4808,19 +4875,19 @@
         <v>20</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>-4.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -4981,7 +5048,7 @@
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,7 +5057,7 @@
         <v>16</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" t="n">
         <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.438</v>
@@ -5061,10 +5128,10 @@
         <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O26" t="n">
         <v>16.6</v>
@@ -5076,16 +5143,16 @@
         <v>0.776</v>
       </c>
       <c r="R26" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S26" t="n">
         <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>15</v>
@@ -5100,19 +5167,19 @@
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
         <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5160,7 +5227,7 @@
         <v>19</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5178,13 +5245,13 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -5339,7 +5406,7 @@
         <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT27" t="n">
         <v>24</v>
@@ -5366,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -5533,10 +5600,10 @@
         <v>19</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5691,7 +5758,7 @@
         <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5730,7 +5797,7 @@
         <v>19</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
         <v>16</v>
@@ -5882,13 +5949,13 @@
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6113,7 @@
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
         <v>17</v>
@@ -6067,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
@@ -6091,7 +6158,7 @@
         <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-29-2012-13</t>
+          <t>2013-01-29</t>
         </is>
       </c>
     </row>
